--- a/datavis2/data/ghg-emissions-sector-network.xlsx
+++ b/datavis2/data/ghg-emissions-sector-network.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahr/Documents/OWID Topics/5 Environmental Change/CO2 &amp; Greenhouse Gas Emissions/Emissions by sector (WRI)/Emissions by sector (Data)/Attached to post on OWID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\FIT3179\FIT3179\datavis2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B556C0-F6C1-824A-95BE-61D16CCDD30A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EB9B12-3E32-4AAB-B231-C7348D9BE750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{9C7CAC0E-1D97-424A-8F25-003688A20EAC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9C7CAC0E-1D97-424A-8F25-003688A20EAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub-sector (further breakdown)" sheetId="3" r:id="rId1"/>
     <sheet name="Sub-sector" sheetId="2" r:id="rId2"/>
     <sheet name="Sector" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Sector</t>
   </si>
@@ -133,28 +136,70 @@
     <t>Iron &amp; Steel</t>
   </si>
   <si>
-    <t>Non-ferous metals</t>
-  </si>
-  <si>
     <t>Machinery</t>
   </si>
   <si>
-    <t>Food and tobacco</t>
-  </si>
-  <si>
-    <t>Paper, pulp &amp; printing</t>
-  </si>
-  <si>
-    <t>Chemical &amp; petrochemical (energy)</t>
-  </si>
-  <si>
     <t>Other industry</t>
   </si>
   <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Oil &amp; Natural Gas</t>
+    <t>sub_sector</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Food &amp; tobacco</t>
+  </si>
+  <si>
+    <t>Paper &amp; printing</t>
+  </si>
+  <si>
+    <t>Chemical &amp; petrochemical</t>
+  </si>
+  <si>
+    <t>Land-Use</t>
+  </si>
+  <si>
+    <t>Deforestation</t>
+  </si>
+  <si>
+    <t>Crop burning</t>
+  </si>
+  <si>
+    <t>Fertilizers</t>
+  </si>
+  <si>
+    <t>Rice growing</t>
+  </si>
+  <si>
+    <t>Livestock &amp; manure</t>
+  </si>
+  <si>
+    <t>Agricultural machinery</t>
+  </si>
+  <si>
+    <t>Coal mining leaks &amp; losses</t>
+  </si>
+  <si>
+    <t>Oil &amp; natural gas leaks &amp; losses</t>
+  </si>
+  <si>
+    <t>Biomass, nuclear &amp; hydro losses</t>
+  </si>
+  <si>
+    <t>Digital technology</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>ghg_emissions_perc</t>
   </si>
 </sst>
 </file>
@@ -521,252 +566,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D27C41D-05F5-864B-9B2D-EF3CA3CBF68E}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="2">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="2">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5.8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2">
         <v>1.3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -782,9 +909,9 @@
       <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -800,7 +927,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -808,7 +935,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -816,7 +943,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -824,7 +951,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -832,7 +959,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -840,7 +967,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -848,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -856,7 +983,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -864,7 +991,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -872,7 +999,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -880,7 +1007,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -888,7 +1015,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -896,7 +1023,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -904,7 +1031,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -912,7 +1039,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -920,7 +1047,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -941,9 +1068,9 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -959,7 +1086,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -967,7 +1094,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -975,7 +1102,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
